--- a/thesis/case1_home/sets.xlsx
+++ b/thesis/case1_home/sets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/case1_home/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C21074D-E6C4-9F46-ACBA-23B3C7654538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33A6E8C-4D04-5B48-AFBB-3B14274E22C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="15120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3809,8 +3809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C962"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A961"/>
+    <sheetView tabSelected="1" topLeftCell="A933" workbookViewId="0">
+      <selection activeCell="B962" sqref="B962"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
